--- a/results/20250528/evaluation_CHD_49_noisy_0.0_br.xlsx
+++ b/results/20250528/evaluation_CHD_49_noisy_0.0_br.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Base_Learner</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>f1</t>
+  </si>
+  <si>
+    <t>mean_ir</t>
+  </si>
+  <si>
+    <t>cv_ir</t>
   </si>
 </sst>
 </file>
@@ -401,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -475,6 +481,40 @@
         <v>0.02393</v>
       </c>
     </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>5.86518</v>
+      </c>
+      <c r="E5">
+        <v>0.81819</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>1.75366</v>
+      </c>
+      <c r="E6">
+        <v>0.05232</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/20250528/evaluation_CHD_49_noisy_0.0_br.xlsx
+++ b/results/20250528/evaluation_CHD_49_noisy_0.0_br.xlsx
@@ -46,10 +46,10 @@
     <t>f1</t>
   </si>
   <si>
-    <t>mean_ir</t>
-  </si>
-  <si>
-    <t>cv_ir</t>
+    <t>mfrd</t>
+  </si>
+  <si>
+    <t>afrd</t>
   </si>
 </sst>
 </file>
@@ -492,10 +492,10 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>5.86518</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0.81819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,10 +509,10 @@
         <v>11</v>
       </c>
       <c r="D6">
-        <v>1.75366</v>
+        <v>0.60398</v>
       </c>
       <c r="E6">
-        <v>0.05232</v>
+        <v>0.06195</v>
       </c>
     </row>
   </sheetData>
